--- a/data/players_priorities_previous.xlsx
+++ b/data/players_priorities_previous.xlsx
@@ -731,7 +731,11 @@
           <t>Legendary</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
